--- a/zzz_lib/code and data/data/Excel/metrics_care_ratio.xlsx
+++ b/zzz_lib/code and data/data/Excel/metrics_care_ratio.xlsx
@@ -1,38 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58164B2-7D12-4881-9A71-DF9ED10BD8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C58164B2-7D12-4881-9A71-DF9ED10BD8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3EB40D-B52F-4CD8-9404-81825F41A16B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C81AFCCF-E8FC-4DD1-AA92-C1E2FB09E25A}"/>
+    <workbookView xWindow="-28920" yWindow="-2370" windowWidth="29040" windowHeight="15720" xr2:uid="{C81AFCCF-E8FC-4DD1-AA92-C1E2FB09E25A}"/>
   </bookViews>
   <sheets>
-    <sheet name="metrics_care_ratio" sheetId="1" r:id="rId1"/>
+    <sheet name="Information" sheetId="3" r:id="rId1"/>
+    <sheet name="metrics_care_ratio" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>care_ratio</t>
   </si>
+  <si>
+    <t>All observations include data for national and state-level geographies in the U.S. for the years 2015 onward. All 50 US states have independent observations along with a single national observation .</t>
+  </si>
+  <si>
+    <t>Data Scope</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <r>
+      <t> Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Care Board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, University of Kansas, using microdata from the American Social Economic Survey(ASEC) curated by ipums.org. For more details, visit thecareboard.ku.edu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Definition of the Care Ratio</t>
+  </si>
+  <si>
+    <t>The Care Ratio compares the number of individuals needing care—children, disabled, &amp; elderly adults—to the number of available able-bodied adult caregivers in both the formal and informal economy. A Care Ratio of one means there is one caregiver for every person in need. A ratio below one indicates a higher number of people in need of care for each available provider. A ratio above one is a higher number of people available to provide care than those needing care.</t>
+  </si>
+  <si>
+    <t>The US Care Ratio: The availability of Care in the US, 2020-2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +232,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -349,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -464,8 +589,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -508,12 +670,45 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -551,6 +746,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{8AE75C4A-82AE-40BF-937A-9E52ACC3E58F}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -568,6 +764,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,10 +1150,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A55A180-1680-4D40-9970-9A9691115623}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9B4578-1E03-49C6-824C-71A8BB4C1E58}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
